--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -1,118 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>上交所（股票）</t>
-  </si>
-  <si>
-    <t>上交所（基金）</t>
-  </si>
-  <si>
-    <t>深交所（股票）</t>
-  </si>
-  <si>
-    <t>深交所（基金）</t>
-  </si>
-  <si>
-    <t>北交所（股票）</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -143,67 +112,88 @@
     </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="千位分隔 2" xfId="4"/>
     <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="千位分隔 3" xfId="7"/>
+    <cellStyle name="常规 5" xfId="8"/>
     <cellStyle name="常规 4 2 2 17" xfId="9"/>
-    <cellStyle name="常规 5" xfId="8"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="千位分隔 2" xfId="4"/>
-    <cellStyle name="千位分隔 3" xfId="7"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -228,14 +218,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -523,102 +573,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="5" customWidth="1"/>
-    <col min="8" max="33" width="8.88671875" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="2"/>
+    <col width="16.77734375" customWidth="1" style="9" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" style="2" min="2" max="5"/>
+    <col width="16.77734375" customWidth="1" style="10" min="6" max="6"/>
+    <col width="18.77734375" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="33"/>
+    <col width="8.88671875" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>交易日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（股票）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（基金）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（股票）</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（基金）</t>
+        </is>
+      </c>
+      <c r="F1" s="13" t="inlineStr">
+        <is>
+          <t>北交所（股票）</t>
+        </is>
+      </c>
+      <c r="G1" s="14" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2">
+      <c r="A2" s="9" t="n">
         <v>45659</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>60408200</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>18991600</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>79396200</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>6243800</v>
       </c>
-      <c r="F2" s="2">
-        <v>1325306.9099999999</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2" t="n">
+        <v>1325306.91</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>166365106.91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3">
+      <c r="A3" s="9" t="n">
         <v>45660</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>52348400</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>15401100</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>74510800</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="n">
         <v>6035600</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>1464556.41</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2" t="n">
         <v>149760456.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44434800</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>14784300</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>61477500</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>5610500</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1273439.72</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>127580539.72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" priority="1" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -701,6 +701,29 @@
         <v>127580539.72</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="15" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>43722600</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>14687400</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>64052300</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>6529700</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1271008.63</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>130263008.63</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -724,6 +724,29 @@
         <v>130263008.63</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="15" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>50848500</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>15601800</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>73503900</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>6909400</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1482453.71</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>148346053.71</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -747,6 +747,29 @@
         <v>148346053.71</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="15" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>43487000</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>13045700</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>67772400</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>5760900</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1767851.88</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>131833851.88</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -770,6 +770,29 @@
         <v>131833851.88</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="15" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>46622000</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>15124200</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>68286900</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>6193300</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1485205.25</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>137711605.25</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -793,6 +793,29 @@
         <v>137711605.25</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="15" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>41210700</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>13288900</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>55493800</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>7020600</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>996178.9</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>118010178.9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -816,6 +816,29 @@
         <v>118010178.9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>53961200</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>19075800</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>81294300</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>8058700</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>2153903.68</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>164543903.68</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -839,6 +839,29 @@
         <v>164543903.68</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="15" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>46665500</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>13201600</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>72314900</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>6387500</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2320780.75</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>140890280.75</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -862,6 +862,29 @@
         <v>140890280.75</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="15" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>49946100</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>15936900</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>77546000</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>6845600</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1933286.62</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>152207886.62</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -885,6 +885,29 @@
         <v>152207886.62</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="15" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45675800</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>14461300</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>67950300</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>5759200</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1569354.86</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>135415954.86</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -908,6 +908,29 @@
         <v>135415954.86</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="15" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>46997500</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>14448600</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>71371900</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>6593800</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1354332.09</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>140766132.09</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -931,6 +931,29 @@
         <v>140766132.09</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="15" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>46925400</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>14491200</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>73733400</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>6675900</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1245155.41</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>143071055.41</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -954,6 +954,29 @@
         <v>143071055.41</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="15" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45263900</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>15199400</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>68402800</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>4874200</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1202862.33</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>134943162.33</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -977,6 +977,29 @@
         <v>134943162.33</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="15" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>54024500</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>17374500</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>81671000</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>7237800</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1436566.99</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>161744366.99</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1000,6 +1000,29 @@
         <v>161744366.99</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="15" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>48146400</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>18135800</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>74171300</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>5795100</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1188216.24</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>147436816.24</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1023,6 +1023,29 @@
         <v>147436816.24</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1046,6 +1046,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1069,6 +1069,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1092,6 +1092,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1115,6 +1115,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1138,6 +1138,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>

--- a/2025年度市场交易量.xlsx
+++ b/2025年度市场交易量.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1161,6 +1161,29 @@
         <v>134558070.18</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="15" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45065300</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>15720600</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>66783900</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>6002700</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>985570.1800000001</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>134558070.18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>
